--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Niger/Pandémie_de_Covid-19_au_Niger.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_au_Niger/Pandémie_de_Covid-19_au_Niger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Niger</t>
+          <t>Pandémie_de_Covid-19_au_Niger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 au Niger démarre officiellement le 19 mars 2020. À la date du 7 octobre 2022, le bilan est de 312 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Niger</t>
+          <t>Pandémie_de_Covid-19_au_Niger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,36 +526,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020
-La pandémie de Covid-19 débute au Niger le 19 mars 2020, avec la détection du premier cas[2]. Le premier décès est enregistré le 24 mars[3].
-En mars 2020 il y a 34 cas confirmés dont trois décès[4].
-En avril 685 nouveaux cas portent le nombre global à 719 dont 32 décès[5].
-En mai 239 nouveaux cas portent le nombre global à 958 dont 64 décès[6].
-En juin 117 nouveaux cas portent le nombre global à 1075 dont 67 décès[7].
-En juillet 61 nouveaux cas portent le nombre global à 1136 dont 69 décès[8].
-En août, 40 nouveaux cas portent le nombre global à 1176 dont 69 décès[9].
-En septembre 20 nouveaux cas portent le nombre global à 1196 dont 69 décès[10].
-En octobre 24 nouveaux cas portent le nombre global à 1 220 dont 69 décès[11].
-En novembre 328 nouveaux cas portent le nombre de cas à 1 548 dont 72 décès[12].
-2021
-Au 2 janvier 2021, sur un nombre total de 3 437 cas, 1 421 sont en traitement, 110 décédés et 1 906 guéris[13].
-En janvier 1 249 nouveaux cas portent le nombre de cas à 4 517 dont 159 décès[14].
-En février 223 nouveaux cas portent le nombre de cas à 4 740 dont 172 décès[15].
-En mars 281 nouveaux cas portent le nombre de cas à 5 021 dont 187 décès[16].
-25 avril, le nombre total de cas est de 5 158, le nombre de décès est de 191[17].
-En avril 205 nouveaux cas portent le nombre de cas à 5 226 dont 191 décès[18].
-En mai 184 nouveaux cas portent le nombre de cas à 5 410 dont 192 décès[19].
-En juin 78 nouveaux cas portent le nombre de cas à 5 488 dont 193 décès[20].
-En juillet 149 nouveaux cas portent le nombre de cas à 5 637 dont 195 décès[21].
-En août 212 nouveaux cas portent le nombre de cas à 5 849 dont 199 décès[22].
-En septembre 159 nouveaux cas portent le nombre de cas à 6 008 dont 201 décès[23].
-En octobre 368 nouveaux cas portent le nombre de cas à 6 376 dont 213 décès[24].
-En novembre 631 nouveaux cas portent le nombre de cas à 7 007 dont 259 décès[25].
-En décembre 398 nouveaux cas portent le nombre de cas à 7 405 dont 275 décès[26].
-2022
-2 101 nouveaux cas et 40 décès portent le nombre de cas à 9 506 dont 315 décès[27].
-2023
-425 nouveaux cas portent le nombre de cas à 9 931 dont 315 décès.
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pandémie de Covid-19 débute au Niger le 19 mars 2020, avec la détection du premier cas. Le premier décès est enregistré le 24 mars.
+En mars 2020 il y a 34 cas confirmés dont trois décès.
+En avril 685 nouveaux cas portent le nombre global à 719 dont 32 décès.
+En mai 239 nouveaux cas portent le nombre global à 958 dont 64 décès.
+En juin 117 nouveaux cas portent le nombre global à 1075 dont 67 décès.
+En juillet 61 nouveaux cas portent le nombre global à 1136 dont 69 décès.
+En août, 40 nouveaux cas portent le nombre global à 1176 dont 69 décès.
+En septembre 20 nouveaux cas portent le nombre global à 1196 dont 69 décès.
+En octobre 24 nouveaux cas portent le nombre global à 1 220 dont 69 décès.
+En novembre 328 nouveaux cas portent le nombre de cas à 1 548 dont 72 décès.
 </t>
         </is>
       </c>
@@ -554,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Niger</t>
+          <t>Pandémie_de_Covid-19_au_Niger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,10 +567,34 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Statistiques</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 2 janvier 2021, sur un nombre total de 3 437 cas, 1 421 sont en traitement, 110 décédés et 1 906 guéris.
+En janvier 1 249 nouveaux cas portent le nombre de cas à 4 517 dont 159 décès.
+En février 223 nouveaux cas portent le nombre de cas à 4 740 dont 172 décès.
+En mars 281 nouveaux cas portent le nombre de cas à 5 021 dont 187 décès.
+25 avril, le nombre total de cas est de 5 158, le nombre de décès est de 191.
+En avril 205 nouveaux cas portent le nombre de cas à 5 226 dont 191 décès.
+En mai 184 nouveaux cas portent le nombre de cas à 5 410 dont 192 décès.
+En juin 78 nouveaux cas portent le nombre de cas à 5 488 dont 193 décès.
+En juillet 149 nouveaux cas portent le nombre de cas à 5 637 dont 195 décès.
+En août 212 nouveaux cas portent le nombre de cas à 5 849 dont 199 décès.
+En septembre 159 nouveaux cas portent le nombre de cas à 6 008 dont 201 décès.
+En octobre 368 nouveaux cas portent le nombre de cas à 6 376 dont 213 décès.
+En novembre 631 nouveaux cas portent le nombre de cas à 7 007 dont 259 décès.
+En décembre 398 nouveaux cas portent le nombre de cas à 7 405 dont 275 décès.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -580,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Niger</t>
+          <t>Pandémie_de_Covid-19_au_Niger</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,12 +617,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Thérapies</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le samedi 30 mai 2020, le ministre de la Santé publique, le Dr Idi Illiassou Mainassara, annonce devant le Parlement que « le Niger maintient sa position concernant le traitement du coronavirus à base de la chloroquine »[28].
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 101 nouveaux cas et 40 décès portent le nombre de cas à 9 506 dont 315 décès.
 </t>
         </is>
       </c>
@@ -611,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_au_Niger</t>
+          <t>Pandémie_de_Covid-19_au_Niger</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,10 +654,110 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">425 nouveaux cas portent le nombre de cas à 9 931 dont 315 décès.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Niger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Niger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Statistiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Niger</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Niger</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Thérapies</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le samedi 30 mai 2020, le ministre de la Santé publique, le Dr Idi Illiassou Mainassara, annonce devant le Parlement que « le Niger maintient sa position concernant le traitement du coronavirus à base de la chloroquine ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_au_Niger</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_au_Niger</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
